--- a/b1_urls.xlsx
+++ b/b1_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>x</t>
   </si>
@@ -206,6 +206,33 @@
     <t>63</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/059136bc/Club-Brugge-Mechelen-July-26-2024-Belgian-Pro-League</t>
   </si>
   <si>
@@ -393,6 +420,33 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/51c957ef/OH-Leuven-Kortrijk-September-22-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/261b83a3/Cercle-Brugge-Gent-September-26-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d23b6e77/Charleroi-Club-Brugge-September-27-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b30b3cb3/Genk-Mechelen-September-28-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d5c30251/Standard-Liege-Westerlo-September-28-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/faf27f70/Dender-Anderlecht-September-28-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e7f3dc07/Antwerp-Beerschot-Wilrijk-September-29-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/faa4a290/Union-SG-Kortrijk-September-29-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/90695338/Gent-OH-Leuven-September-29-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/10dfb309/Cercle-Brugge-Sint-Truiden-September-29-2024-Belgian-Pro-League</t>
   </si>
 </sst>
 </file>
@@ -454,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +764,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +788,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +796,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +804,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +812,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +820,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +828,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +836,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +844,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +852,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +860,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +868,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +876,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +884,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +892,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +900,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +908,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +916,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +924,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +932,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +940,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +948,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +956,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +964,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +972,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61">
@@ -926,7 +980,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62">
@@ -934,7 +988,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63">
@@ -942,7 +996,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +1004,79 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/b1_urls.xlsx
+++ b/b1_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>x</t>
   </si>
@@ -233,6 +233,54 @@
     <t>72</t>
   </si>
   <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/059136bc/Club-Brugge-Mechelen-July-26-2024-Belgian-Pro-League</t>
   </si>
   <si>
@@ -447,6 +495,54 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/10dfb309/Cercle-Brugge-Sint-Truiden-September-29-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f5122f3a/Westerlo-Beerschot-Wilrijk-October-4-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1bc20d8c/Mechelen-OH-Leuven-October-5-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bb46c10d/Kortrijk-Genk-October-5-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bbe2f267/Dender-Charleroi-October-5-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a580446c/Anderlecht-Standard-Liege-October-6-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eae23fe1/Antwerp-Cercle-Brugge-October-6-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/98a690c2/Club-Brugge-Union-SG-October-6-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/93fe578f/Sint-Truiden-Gent-October-6-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d37de72a/Beerschot-Wilrijk-Anderlecht-October-18-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/911dfef9/Westerlo-Club-Brugge-October-19-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3d46fa82/Cercle-Brugge-Dender-October-19-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e997b215/Union-SG-Gent-October-19-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b87e4eaf/Genk-Sint-Truiden-October-20-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b625885c/OH-Leuven-Antwerp-October-20-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1ce55800/Standard-Liege-Charleroi-October-20-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7b5d4e44/Mechelen-Kortrijk-October-20-2024-Belgian-Pro-League</t>
   </si>
 </sst>
 </file>
@@ -508,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -516,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -524,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -540,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -548,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -556,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -572,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11">
@@ -580,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -596,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -604,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
@@ -612,7 +708,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
@@ -620,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
@@ -628,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
@@ -636,7 +732,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -644,7 +740,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -652,7 +748,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
@@ -660,7 +756,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
@@ -668,7 +764,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
@@ -676,7 +772,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -684,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
@@ -692,7 +788,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -700,7 +796,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
@@ -708,7 +804,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
@@ -716,7 +812,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -724,7 +820,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +828,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -740,7 +836,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -748,7 +844,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -756,7 +852,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -764,7 +860,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -772,7 +868,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -780,7 +876,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
@@ -788,7 +884,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38">
@@ -796,7 +892,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
@@ -804,7 +900,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40">
@@ -812,7 +908,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41">
@@ -820,7 +916,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42">
@@ -828,7 +924,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43">
@@ -836,7 +932,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44">
@@ -844,7 +940,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45">
@@ -852,7 +948,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46">
@@ -860,7 +956,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47">
@@ -868,7 +964,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48">
@@ -876,7 +972,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49">
@@ -884,7 +980,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50">
@@ -892,7 +988,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51">
@@ -900,7 +996,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52">
@@ -908,7 +1004,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53">
@@ -916,7 +1012,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54">
@@ -924,7 +1020,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55">
@@ -932,7 +1028,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56">
@@ -940,7 +1036,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57">
@@ -948,7 +1044,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58">
@@ -956,7 +1052,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59">
@@ -964,7 +1060,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60">
@@ -972,7 +1068,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61">
@@ -980,7 +1076,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62">
@@ -988,7 +1084,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63">
@@ -996,7 +1092,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64">
@@ -1004,7 +1100,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65">
@@ -1012,7 +1108,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66">
@@ -1020,7 +1116,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67">
@@ -1028,7 +1124,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68">
@@ -1036,7 +1132,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69">
@@ -1044,7 +1140,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70">
@@ -1052,7 +1148,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71">
@@ -1060,7 +1156,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72">
@@ -1068,7 +1164,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73">
@@ -1076,7 +1172,135 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/b1_urls.xlsx
+++ b/b1_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t>x</t>
   </si>
@@ -281,6 +281,57 @@
     <t>88</t>
   </si>
   <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/059136bc/Club-Brugge-Mechelen-July-26-2024-Belgian-Pro-League</t>
   </si>
   <si>
@@ -543,6 +594,57 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/7b5d4e44/Mechelen-Kortrijk-October-20-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7489c904/Kortrijk-Beerschot-Wilrijk-October-25-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/57d877a2/Charleroi-OH-Leuven-October-26-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5beaaa3c/Dender-Mechelen-October-26-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5446f052/Sint-Truiden-Westerlo-October-26-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1ec32943/Club-Brugge-Anderlecht-October-27-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1fe5a9bc/Antwerp-Standard-Liege-October-27-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b76c33de/Gent-Genk-October-27-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c868c5e5/Union-SG-Cercle-Brugge-October-27-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4fc679bd/Westerlo-Dender-November-1-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/660e2ec2/Standard-Liege-Sint-Truiden-November-2-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/07f148d0/OH-Leuven-Club-Brugge-November-2-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/56f289d4/Mechelen-Union-SG-November-2-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1e8a7ec9/Genk-Antwerp-November-3-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/86a65b65/Cercle-Brugge-Charleroi-November-3-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d9647b38/Anderlecht-Kortrijk-November-3-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/aaed6d90/Beerschot-Wilrijk-Gent-November-3-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/57d86365/Sint-Truiden-Mechelen-November-8-2024-Belgian-Pro-League</t>
   </si>
 </sst>
 </file>
@@ -604,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
@@ -612,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
@@ -620,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
@@ -628,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">
@@ -636,7 +738,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
@@ -644,7 +746,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
@@ -652,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
@@ -660,7 +762,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -668,7 +770,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -676,7 +778,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
@@ -684,7 +786,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +794,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
@@ -700,7 +802,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
@@ -708,7 +810,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16">
@@ -716,7 +818,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
@@ -724,7 +826,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18">
@@ -732,7 +834,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
@@ -740,7 +842,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20">
@@ -748,7 +850,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21">
@@ -756,7 +858,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
@@ -764,7 +866,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23">
@@ -772,7 +874,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24">
@@ -780,7 +882,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25">
@@ -788,7 +890,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
@@ -796,7 +898,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
@@ -804,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28">
@@ -812,7 +914,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29">
@@ -820,7 +922,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30">
@@ -828,7 +930,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31">
@@ -836,7 +938,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32">
@@ -844,7 +946,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33">
@@ -852,7 +954,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34">
@@ -860,7 +962,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35">
@@ -868,7 +970,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36">
@@ -876,7 +978,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37">
@@ -884,7 +986,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38">
@@ -892,7 +994,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39">
@@ -900,7 +1002,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40">
@@ -908,7 +1010,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41">
@@ -916,7 +1018,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42">
@@ -924,7 +1026,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43">
@@ -932,7 +1034,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44">
@@ -940,7 +1042,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45">
@@ -948,7 +1050,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46">
@@ -956,7 +1058,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47">
@@ -964,7 +1066,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48">
@@ -972,7 +1074,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49">
@@ -980,7 +1082,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50">
@@ -988,7 +1090,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51">
@@ -996,7 +1098,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52">
@@ -1004,7 +1106,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53">
@@ -1012,7 +1114,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54">
@@ -1020,7 +1122,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55">
@@ -1028,7 +1130,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56">
@@ -1036,7 +1138,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57">
@@ -1044,7 +1146,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58">
@@ -1052,7 +1154,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59">
@@ -1060,7 +1162,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60">
@@ -1068,7 +1170,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61">
@@ -1076,7 +1178,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62">
@@ -1084,7 +1186,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63">
@@ -1092,7 +1194,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64">
@@ -1100,7 +1202,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65">
@@ -1108,7 +1210,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66">
@@ -1116,7 +1218,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67">
@@ -1124,7 +1226,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68">
@@ -1132,7 +1234,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69">
@@ -1140,7 +1242,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70">
@@ -1148,7 +1250,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71">
@@ -1156,7 +1258,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72">
@@ -1164,7 +1266,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73">
@@ -1172,7 +1274,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74">
@@ -1180,7 +1282,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75">
@@ -1188,7 +1290,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76">
@@ -1196,7 +1298,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77">
@@ -1204,7 +1306,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1314,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79">
@@ -1220,7 +1322,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80">
@@ -1228,7 +1330,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81">
@@ -1236,7 +1338,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82">
@@ -1244,7 +1346,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83">
@@ -1252,7 +1354,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84">
@@ -1260,7 +1362,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85">
@@ -1268,7 +1370,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86">
@@ -1276,7 +1378,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87">
@@ -1284,7 +1386,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88">
@@ -1292,7 +1394,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89">
@@ -1300,7 +1402,143 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/b1_urls.xlsx
+++ b/b1_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
   <si>
     <t>x</t>
   </si>
@@ -332,6 +332,123 @@
     <t>105</t>
   </si>
   <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/059136bc/Club-Brugge-Mechelen-July-26-2024-Belgian-Pro-League</t>
   </si>
   <si>
@@ -645,6 +762,123 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/57d86365/Sint-Truiden-Mechelen-November-8-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/acfa76d3/Kortrijk-Antwerp-November-9-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9f65352f/Dender-OH-Leuven-November-9-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fca3cae5/Charleroi-Westerlo-November-9-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/63463acd/Cercle-Brugge-Anderlecht-November-10-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/497825ce/Gent-Standard-Liege-November-10-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/597294c4/Union-SG-Genk-November-10-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8a91b990/Beerschot-Wilrijk-Club-Brugge-November-10-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4a52d18b/Antwerp-Dender-November-22-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a816eed8/Club-Brugge-Sint-Truiden-November-23-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a6ae0eea/Standard-Liege-Cercle-Brugge-November-23-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e29bdab3/Genk-Charleroi-November-23-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b3b92187/Mechelen-Beerschot-Wilrijk-November-24-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7b5af960/OH-Leuven-Union-SG-November-24-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7a3ab5da/Anderlecht-Gent-November-24-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/303e134a/Westerlo-Kortrijk-November-24-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4a5f6dd8/Kortrijk-Mechelen-November-29-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0a4d8a05/Club-Brugge-Dender-November-30-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/02e29443/Charleroi-Standard-Liege-November-30-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/847465bd/Sint-Truiden-Genk-December-1-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4285d88e/Beerschot-Wilrijk-Cercle-Brugge-December-1-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f9e7c99b/OH-Leuven-Anderlecht-December-1-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/646bb22c/Union-SG-Antwerp-December-1-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ba253b8f/Westerlo-Gent-December-1-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d0dbd9bc/Genk-Kortrijk-December-7-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2c12b758/Standard-Liege-OH-Leuven-December-7-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d4f6d325/Mechelen-Club-Brugge-December-7-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3f5bb0d2/Gent-Sint-Truiden-December-7-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7ee02997/Antwerp-Charleroi-December-8-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6f2fac1c/Cercle-Brugge-Union-SG-December-8-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ad01f44d/Anderlecht-Beerschot-Wilrijk-December-8-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e107a1d2/Dender-Westerlo-December-8-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/17c82257/Mechelen-Antwerp-December-13-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e816f61b/Beerschot-Wilrijk-Standard-Liege-December-14-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b605478c/OH-Leuven-Charleroi-December-14-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fd06a649/Kortrijk-Dender-December-14-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d6b3126b/Club-Brugge-Genk-December-15-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/818cc630/Union-SG-Westerlo-December-15-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/88de6385/Sint-Truiden-Anderlecht-December-15-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/daeb1885/Gent-Cercle-Brugge-December-15-2024-Belgian-Pro-League</t>
   </si>
 </sst>
 </file>
@@ -706,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
@@ -714,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
@@ -722,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5">
@@ -730,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6">
@@ -738,7 +972,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
@@ -746,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -754,7 +988,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -762,7 +996,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10">
@@ -770,7 +1004,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11">
@@ -778,7 +1012,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12">
@@ -786,7 +1020,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
@@ -794,7 +1028,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
@@ -802,7 +1036,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
@@ -810,7 +1044,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -818,7 +1052,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -826,7 +1060,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
@@ -834,7 +1068,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +1076,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
@@ -850,7 +1084,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21">
@@ -858,7 +1092,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
@@ -866,7 +1100,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23">
@@ -874,7 +1108,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24">
@@ -882,7 +1116,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25">
@@ -890,7 +1124,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26">
@@ -898,7 +1132,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27">
@@ -906,7 +1140,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28">
@@ -914,7 +1148,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29">
@@ -922,7 +1156,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30">
@@ -930,7 +1164,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31">
@@ -938,7 +1172,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32">
@@ -946,7 +1180,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33">
@@ -954,7 +1188,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34">
@@ -962,7 +1196,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35">
@@ -970,7 +1204,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36">
@@ -978,7 +1212,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37">
@@ -986,7 +1220,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38">
@@ -994,7 +1228,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39">
@@ -1002,7 +1236,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40">
@@ -1010,7 +1244,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41">
@@ -1018,7 +1252,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42">
@@ -1026,7 +1260,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43">
@@ -1034,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44">
@@ -1042,7 +1276,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45">
@@ -1050,7 +1284,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46">
@@ -1058,7 +1292,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47">
@@ -1066,7 +1300,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48">
@@ -1074,7 +1308,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49">
@@ -1082,7 +1316,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50">
@@ -1090,7 +1324,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51">
@@ -1098,7 +1332,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52">
@@ -1106,7 +1340,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53">
@@ -1114,7 +1348,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54">
@@ -1122,7 +1356,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55">
@@ -1130,7 +1364,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56">
@@ -1138,7 +1372,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57">
@@ -1146,7 +1380,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58">
@@ -1154,7 +1388,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59">
@@ -1162,7 +1396,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60">
@@ -1170,7 +1404,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61">
@@ -1178,7 +1412,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62">
@@ -1186,7 +1420,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63">
@@ -1194,7 +1428,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64">
@@ -1202,7 +1436,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65">
@@ -1210,7 +1444,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66">
@@ -1218,7 +1452,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67">
@@ -1226,7 +1460,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68">
@@ -1234,7 +1468,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69">
@@ -1242,7 +1476,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70">
@@ -1250,7 +1484,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71">
@@ -1258,7 +1492,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72">
@@ -1266,7 +1500,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73">
@@ -1274,7 +1508,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74">
@@ -1282,7 +1516,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75">
@@ -1290,7 +1524,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76">
@@ -1298,7 +1532,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77">
@@ -1306,7 +1540,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78">
@@ -1314,7 +1548,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79">
@@ -1322,7 +1556,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80">
@@ -1330,7 +1564,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81">
@@ -1338,7 +1572,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82">
@@ -1346,7 +1580,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83">
@@ -1354,7 +1588,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84">
@@ -1362,7 +1596,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85">
@@ -1370,7 +1604,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86">
@@ -1378,7 +1612,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87">
@@ -1386,7 +1620,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88">
@@ -1394,7 +1628,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89">
@@ -1402,7 +1636,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90">
@@ -1410,7 +1644,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91">
@@ -1418,7 +1652,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92">
@@ -1426,7 +1660,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93">
@@ -1434,7 +1668,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94">
@@ -1442,7 +1676,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95">
@@ -1450,7 +1684,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96">
@@ -1458,7 +1692,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97">
@@ -1466,7 +1700,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98">
@@ -1474,7 +1708,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99">
@@ -1482,7 +1716,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100">
@@ -1490,7 +1724,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101">
@@ -1498,7 +1732,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102">
@@ -1506,7 +1740,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103">
@@ -1514,7 +1748,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104">
@@ -1522,7 +1756,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105">
@@ -1530,7 +1764,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106">
@@ -1538,7 +1772,319 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>210</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/b1_urls.xlsx
+++ b/b1_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="443">
   <si>
     <t>x</t>
   </si>
@@ -449,6 +449,237 @@
     <t>144</t>
   </si>
   <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/059136bc/Club-Brugge-Mechelen-July-26-2024-Belgian-Pro-League</t>
   </si>
   <si>
@@ -879,6 +1110,237 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/daeb1885/Gent-Cercle-Brugge-December-15-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0bcbeab9/Westerlo-Mechelen-December-20-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/021ffcb0/Charleroi-Sint-Truiden-December-21-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c4dd6de5/Dender-Antwerp-December-21-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/24b4d112/Beerschot-Wilrijk-Kortrijk-December-21-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7469d5b7/Genk-Anderlecht-December-22-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ae2c2f1c/Standard-Liege-Gent-December-22-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/435de17e/Union-SG-Club-Brugge-December-22-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0eee2ebc/Cercle-Brugge-OH-Leuven-December-22-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b4ea65cc/Antwerp-Genk-December-26-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/336f5b4f/Club-Brugge-Westerlo-December-26-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8b80f096/Kortrijk-Charleroi-December-26-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/365bce12/Mechelen-Standard-Liege-December-26-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cb33764e/Gent-Union-SG-December-26-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0c9e22f9/OH-Leuven-Beerschot-Wilrijk-December-27-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1fa133d4/Anderlecht-Dender-December-27-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f5c8e1ed/Sint-Truiden-Cercle-Brugge-December-27-2024-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3b86978a/Standard-Liege-Kortrijk-January-10-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ed071f24/Westerlo-Sint-Truiden-January-11-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c413afd7/Genk-OH-Leuven-January-11-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/68bd9ebb/Charleroi-Union-SG-January-11-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3bcc10d4/Beerschot-Wilrijk-Antwerp-January-12-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6d56c76b/Dender-Gent-January-12-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c002a475/Anderlecht-Club-Brugge-January-12-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/73c0035b/Cercle-Brugge-Mechelen-January-12-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/55fa7390/Gent-Charleroi-January-17-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0f11e769/Dender-Cercle-Brugge-January-18-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4f58b29e/Mechelen-Genk-January-18-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e95d8c43/Club-Brugge-Beerschot-Wilrijk-January-18-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ae97962f/Kortrijk-Anderlecht-January-19-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4af61b91/Union-SG-OH-Leuven-January-19-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/42e1eec0/Sint-Truiden-Standard-Liege-January-19-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ccc8f2ff/Antwerp-Westerlo-January-19-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b8c1b312/Sint-Truiden-Antwerp-January-24-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e5580e18/Westerlo-Genk-January-25-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6385dcc5/Charleroi-Cercle-Brugge-January-25-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6e1acac2/Club-Brugge-Kortrijk-January-25-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fb40c392/Standard-Liege-Dender-January-26-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/871588ba/Beerschot-Wilrijk-Union-SG-January-26-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/19aa6c4f/Anderlecht-Mechelen-January-26-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d42e794e/OH-Leuven-Gent-January-26-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d432db71/OH-Leuven-Mechelen-January-31-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/21373d09/Charleroi-Dender-February-1-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6a1cde35/Cercle-Brugge-Standard-Liege-February-1-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9ad02bc8/Genk-Beerschot-Wilrijk-February-1-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e6fa9f56/Antwerp-Club-Brugge-February-2-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/69e8e06b/Union-SG-Sint-Truiden-February-2-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/36229504/Gent-Anderlecht-February-2-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ce668cbf/Kortrijk-Westerlo-February-2-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4680237c/Mechelen-Gent-February-7-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/370e4bda/Club-Brugge-OH-Leuven-February-8-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/138d0de0/Dender-Sint-Truiden-February-8-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ba897ba6/Genk-Cercle-Brugge-February-8-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f064ab58/Anderlecht-Antwerp-February-9-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/38081897/Kortrijk-Union-SG-February-9-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/14ad6cf6/Westerlo-Standard-Liege-February-9-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b2aaf590/Beerschot-Wilrijk-Charleroi-February-9-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e08216ff/Standard-Liege-Genk-February-14-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/db11a3fa/OH-Leuven-Dender-February-15-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a3a17465/Antwerp-Kortrijk-February-15-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/70650d50/Sint-Truiden-Club-Brugge-February-15-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1a513e90/Gent-Beerschot-Wilrijk-February-16-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3d759820/Union-SG-Mechelen-February-16-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1287f30f/Charleroi-Anderlecht-February-16-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9585f713/Cercle-Brugge-Westerlo-February-16-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/af666902/Mechelen-Sint-Truiden-February-21-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2a52a840/Dender-Beerschot-Wilrijk-February-22-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/370ac089/Westerlo-Charleroi-February-22-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5b3aa57a/Antwerp-OH-Leuven-February-22-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c821be6d/Club-Brugge-Standard-Liege-February-23-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ebf59b99/Genk-Gent-February-23-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/84cd17bd/Anderlecht-Union-SG-February-23-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d03eec8a/Kortrijk-Cercle-Brugge-February-23-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8a6a7bc5/Charleroi-Genk-February-28-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/13d0a243/Cercle-Brugge-Antwerp-March-1-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f5176ab6/Gent-Club-Brugge-March-1-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dbab2454/Sint-Truiden-Kortrijk-March-1-2025-Belgian-Pro-League</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e5be2cb3/Union-SG-Dender-March-1-2025-Belgian-Pro-League</t>
   </si>
 </sst>
 </file>
@@ -940,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
@@ -948,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
@@ -956,7 +1418,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5">
@@ -964,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7">
@@ -980,7 +1442,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
@@ -988,7 +1450,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9">
@@ -996,7 +1458,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10">
@@ -1004,7 +1466,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11">
@@ -1012,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12">
@@ -1020,7 +1482,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13">
@@ -1028,7 +1490,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14">
@@ -1036,7 +1498,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15">
@@ -1044,7 +1506,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
@@ -1052,7 +1514,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17">
@@ -1060,7 +1522,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18">
@@ -1068,7 +1530,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19">
@@ -1076,7 +1538,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20">
@@ -1084,7 +1546,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21">
@@ -1092,7 +1554,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22">
@@ -1100,7 +1562,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23">
@@ -1108,7 +1570,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24">
@@ -1116,7 +1578,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25">
@@ -1124,7 +1586,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
@@ -1132,7 +1594,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27">
@@ -1140,7 +1602,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28">
@@ -1148,7 +1610,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29">
@@ -1156,7 +1618,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
@@ -1164,7 +1626,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31">
@@ -1172,7 +1634,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>174</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32">
@@ -1180,7 +1642,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33">
@@ -1188,7 +1650,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34">
@@ -1196,7 +1658,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35">
@@ -1204,7 +1666,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36">
@@ -1212,7 +1674,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37">
@@ -1220,7 +1682,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38">
@@ -1228,7 +1690,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39">
@@ -1236,7 +1698,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>182</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40">
@@ -1244,7 +1706,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1714,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42">
@@ -1260,7 +1722,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43">
@@ -1268,7 +1730,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>186</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44">
@@ -1276,7 +1738,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>187</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45">
@@ -1284,7 +1746,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
@@ -1292,7 +1754,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>189</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47">
@@ -1300,7 +1762,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48">
@@ -1308,7 +1770,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49">
@@ -1316,7 +1778,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50">
@@ -1324,7 +1786,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51">
@@ -1332,7 +1794,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52">
@@ -1340,7 +1802,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53">
@@ -1348,7 +1810,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54">
@@ -1356,7 +1818,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55">
@@ -1364,7 +1826,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>198</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56">
@@ -1372,7 +1834,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>199</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57">
@@ -1380,7 +1842,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>200</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58">
@@ -1388,7 +1850,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59">
@@ -1396,7 +1858,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>202</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60">
@@ -1404,7 +1866,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>203</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61">
@@ -1412,7 +1874,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>204</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62">
@@ -1420,7 +1882,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>205</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63">
@@ -1428,7 +1890,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64">
@@ -1436,7 +1898,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65">
@@ -1444,7 +1906,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>208</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66">
@@ -1452,7 +1914,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
     </row>
     <row r="67">
@@ -1460,7 +1922,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>210</v>
+        <v>287</v>
       </c>
     </row>
     <row r="68">
@@ -1468,7 +1930,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>211</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69">
@@ -1476,7 +1938,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>212</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70">
@@ -1484,7 +1946,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71">
@@ -1492,7 +1954,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72">
@@ -1500,7 +1962,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>215</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73">
@@ -1508,7 +1970,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74">
@@ -1516,7 +1978,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>217</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75">
@@ -1524,7 +1986,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>218</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76">
@@ -1532,7 +1994,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>219</v>
+        <v>296</v>
       </c>
     </row>
     <row r="77">
@@ -1540,7 +2002,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78">
@@ -1548,7 +2010,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
     </row>
     <row r="79">
@@ -1556,7 +2018,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>222</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80">
@@ -1564,7 +2026,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>223</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81">
@@ -1572,7 +2034,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>224</v>
+        <v>301</v>
       </c>
     </row>
     <row r="82">
@@ -1580,7 +2042,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>225</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83">
@@ -1588,7 +2050,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>226</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84">
@@ -1596,7 +2058,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>227</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85">
@@ -1604,7 +2066,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>228</v>
+        <v>305</v>
       </c>
     </row>
     <row r="86">
@@ -1612,7 +2074,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>229</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87">
@@ -1620,7 +2082,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88">
@@ -1628,7 +2090,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89">
@@ -1636,7 +2098,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90">
@@ -1644,7 +2106,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
     </row>
     <row r="91">
@@ -1652,7 +2114,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>234</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92">
@@ -1660,7 +2122,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93">
@@ -1668,7 +2130,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>236</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94">
@@ -1676,7 +2138,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95">
@@ -1684,7 +2146,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>238</v>
+        <v>315</v>
       </c>
     </row>
     <row r="96">
@@ -1692,7 +2154,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>239</v>
+        <v>316</v>
       </c>
     </row>
     <row r="97">
@@ -1700,7 +2162,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
     </row>
     <row r="98">
@@ -1708,7 +2170,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>241</v>
+        <v>318</v>
       </c>
     </row>
     <row r="99">
@@ -1716,7 +2178,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
     </row>
     <row r="100">
@@ -1724,7 +2186,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>243</v>
+        <v>320</v>
       </c>
     </row>
     <row r="101">
@@ -1732,7 +2194,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>244</v>
+        <v>321</v>
       </c>
     </row>
     <row r="102">
@@ -1740,7 +2202,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
     </row>
     <row r="103">
@@ -1748,7 +2210,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>246</v>
+        <v>323</v>
       </c>
     </row>
     <row r="104">
@@ -1756,7 +2218,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
     </row>
     <row r="105">
@@ -1764,7 +2226,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>248</v>
+        <v>325</v>
       </c>
     </row>
     <row r="106">
@@ -1772,7 +2234,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
     </row>
     <row r="107">
@@ -1780,7 +2242,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>250</v>
+        <v>327</v>
       </c>
     </row>
     <row r="108">
@@ -1788,7 +2250,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
     </row>
     <row r="109">
@@ -1796,7 +2258,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
     </row>
     <row r="110">
@@ -1804,7 +2266,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>253</v>
+        <v>330</v>
       </c>
     </row>
     <row r="111">
@@ -1812,7 +2274,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>254</v>
+        <v>331</v>
       </c>
     </row>
     <row r="112">
@@ -1820,7 +2282,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>255</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113">
@@ -1828,7 +2290,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>256</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114">
@@ -1836,7 +2298,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>257</v>
+        <v>334</v>
       </c>
     </row>
     <row r="115">
@@ -1844,7 +2306,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116">
@@ -1852,7 +2314,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>259</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117">
@@ -1860,7 +2322,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>260</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118">
@@ -1868,7 +2330,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>261</v>
+        <v>338</v>
       </c>
     </row>
     <row r="119">
@@ -1876,7 +2338,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>262</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120">
@@ -1884,7 +2346,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>263</v>
+        <v>340</v>
       </c>
     </row>
     <row r="121">
@@ -1892,7 +2354,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>264</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122">
@@ -1900,7 +2362,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>265</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123">
@@ -1908,7 +2370,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>266</v>
+        <v>343</v>
       </c>
     </row>
     <row r="124">
@@ -1916,7 +2378,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>267</v>
+        <v>344</v>
       </c>
     </row>
     <row r="125">
@@ -1924,7 +2386,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>268</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126">
@@ -1932,7 +2394,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>269</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127">
@@ -1940,7 +2402,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
     </row>
     <row r="128">
@@ -1948,7 +2410,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>271</v>
+        <v>348</v>
       </c>
     </row>
     <row r="129">
@@ -1956,7 +2418,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>272</v>
+        <v>349</v>
       </c>
     </row>
     <row r="130">
@@ -1964,7 +2426,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>273</v>
+        <v>350</v>
       </c>
     </row>
     <row r="131">
@@ -1972,7 +2434,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
     </row>
     <row r="132">
@@ -1980,7 +2442,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
     </row>
     <row r="133">
@@ -1988,7 +2450,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>276</v>
+        <v>353</v>
       </c>
     </row>
     <row r="134">
@@ -1996,7 +2458,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>277</v>
+        <v>354</v>
       </c>
     </row>
     <row r="135">
@@ -2004,7 +2466,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
     </row>
     <row r="136">
@@ -2012,7 +2474,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>279</v>
+        <v>356</v>
       </c>
     </row>
     <row r="137">
@@ -2020,7 +2482,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>280</v>
+        <v>357</v>
       </c>
     </row>
     <row r="138">
@@ -2028,7 +2490,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>281</v>
+        <v>358</v>
       </c>
     </row>
     <row r="139">
@@ -2036,7 +2498,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>282</v>
+        <v>359</v>
       </c>
     </row>
     <row r="140">
@@ -2044,7 +2506,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>283</v>
+        <v>360</v>
       </c>
     </row>
     <row r="141">
@@ -2052,7 +2514,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>284</v>
+        <v>361</v>
       </c>
     </row>
     <row r="142">
@@ -2060,7 +2522,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>285</v>
+        <v>362</v>
       </c>
     </row>
     <row r="143">
@@ -2068,7 +2530,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>286</v>
+        <v>363</v>
       </c>
     </row>
     <row r="144">
@@ -2076,7 +2538,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>287</v>
+        <v>364</v>
       </c>
     </row>
     <row r="145">
@@ -2084,7 +2546,623 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>288</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
